--- a/data/case1/9/Q2_6.xlsx
+++ b/data/case1/9/Q2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.25806292829665267</v>
+        <v>0.23349936394030379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.024011262700970093</v>
+        <v>0.015525888577602842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999914677176</v>
+        <v>-0.0039999999863447044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999844950764</v>
+        <v>-0.00799999997501466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999904379848</v>
+        <v>-0.0029999999850174319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999889481757</v>
+        <v>-0.0019999999830666582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999977275742</v>
+        <v>-0.0099999999638895609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0078014996606272646</v>
+        <v>0.019042946294359098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999874120711</v>
+        <v>-0.001999999981010081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999865465412</v>
+        <v>-0.0019999999796347367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999850147674</v>
+        <v>-0.0029999999770842223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999841152096</v>
+        <v>-0.0034999999755345179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999832248108</v>
+        <v>-0.0034999999741396337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999765201224</v>
+        <v>-0.0079999999630580021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998641120413</v>
+        <v>-0.00099999997938926555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999984808376</v>
+        <v>-0.0019999999767597032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999845756733</v>
+        <v>-0.0019999999763973264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999816409115</v>
+        <v>-0.0039999999715565338</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.003999999993490988</v>
+        <v>-0.0039999999895043992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.00399999999084244</v>
+        <v>-0.0039999999863340463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.067719474475000929</v>
+        <v>-0.047819312204852693</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.00399999999011591</v>
+        <v>-0.0039999999854893886</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999895753433</v>
+        <v>-0.0049999999832239794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999996719648</v>
+        <v>-0.019999999946339386</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999966798576</v>
+        <v>-0.019999999945681246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999877284296</v>
+        <v>-0.002499999981134593</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999871053724</v>
+        <v>-0.0024999999800674466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999851538774</v>
+        <v>-0.0019999999770012877</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.006999999975985105</v>
+        <v>-0.0069999999619563269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999898849854</v>
+        <v>-0.059999999834727813</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999742531571</v>
+        <v>-0.0069999999592269546</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999698390241</v>
+        <v>-0.009999999951928018</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999978427482</v>
+        <v>-0.0039999999660942365</v>
       </c>
     </row>
   </sheetData>
